--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T11:08:45+00:00</t>
+    <t>2024-02-07T14:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:28:15+00:00</t>
+    <t>2024-02-07T16:04:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T16:04:22+00:00</t>
+    <t>2024-02-07T17:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T17:31:40+00:00</t>
+    <t>2024-02-07T17:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T17:32:41+00:00</t>
+    <t>2024-02-08T09:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T09:57:00+00:00</t>
+    <t>2024-02-11T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T15:45:47+00:00</t>
+    <t>2024-02-12T12:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T12:45:21+00:00</t>
+    <t>2024-02-15T16:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:40:40+00:00</t>
+    <t>2024-02-16T09:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T09:35:34+00:00</t>
+    <t>2024-02-16T16:20:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T16:20:17+00:00</t>
+    <t>2024-02-21T15:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:13:04+00:00</t>
+    <t>2024-02-26T15:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T15:10:23+00:00</t>
+    <t>2024-02-29T09:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T09:27:29+00:00</t>
+    <t>2024-02-29T09:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T09:39:56+00:00</t>
+    <t>2024-03-12T11:10:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T11:10:47+00:00</t>
+    <t>2024-03-12T16:09:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:24:09+00:00</t>
+    <t>2024-03-12T17:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:37:11+00:00</t>
+    <t>2024-03-12T17:47:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:47:27+00:00</t>
+    <t>2024-03-12T18:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:03:49+00:00</t>
+    <t>2024-03-12T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:27:00+00:00</t>
+    <t>2024-03-12T18:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:45:19+00:00</t>
+    <t>2024-03-12T19:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T19:04:09+00:00</t>
+    <t>2024-03-12T19:33:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T19:33:13+00:00</t>
+    <t>2024-03-12T20:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:05:23+00:00</t>
+    <t>2024-03-12T20:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:36:46+00:00</t>
+    <t>2024-03-12T20:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:57:01+00:00</t>
+    <t>2024-03-12T21:17:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T21:17:35+00:00</t>
+    <t>2024-03-13T08:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T08:46:11+00:00</t>
+    <t>2024-03-13T09:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T09:02:53+00:00</t>
+    <t>2024-03-13T09:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0-ballot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T10:24:41+00:00</t>
+    <t>2024-03-13T16:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T16:27:50+00:00</t>
+    <t>2024-03-13T16:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T16:38:24+00:00</t>
+    <t>2024-03-13T17:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T17:00:38+00:00</t>
+    <t>2024-03-22T16:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,10 +237,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Spécification métier vers l'extension ROR OrganizationPrice</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Spécification métier vers l'extension ROR OrganizationPrice</t>
   </si>
   <si>
     <t/>
@@ -1091,8 +1091,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="133.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="133.78125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1311,10 +1311,10 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -1417,10 +1417,10 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -1737,10 +1737,10 @@
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1951,10 +1951,10 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -2055,10 +2055,10 @@
         <v>120</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="10">
@@ -2269,10 +2269,10 @@
         <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -2483,10 +2483,10 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -2587,10 +2587,10 @@
         <v>120</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -2801,10 +2801,10 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -3015,10 +3015,10 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -3121,10 +3121,10 @@
         <v>120</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="20">
@@ -3335,10 +3335,10 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -3549,10 +3549,10 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -3655,10 +3655,10 @@
         <v>120</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="25">
@@ -3869,10 +3869,10 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -4083,10 +4083,10 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -4189,10 +4189,10 @@
         <v>120</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="30">
@@ -4403,10 +4403,10 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -4617,10 +4617,10 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -4721,10 +4721,10 @@
         <v>120</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="35">
@@ -4935,10 +4935,10 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="37">
@@ -5149,10 +5149,10 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="39">
@@ -5255,10 +5255,10 @@
         <v>120</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="40">
@@ -5469,10 +5469,10 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="42">
@@ -5683,10 +5683,10 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -5787,10 +5787,10 @@
         <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="45">
@@ -6001,10 +6001,10 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="47">
@@ -6215,10 +6215,10 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -6319,10 +6319,10 @@
         <v>120</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="50">
@@ -6533,10 +6533,10 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="52">
@@ -6747,10 +6747,10 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -6851,10 +6851,10 @@
         <v>120</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="55">
@@ -7065,10 +7065,10 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="57">
@@ -7279,10 +7279,10 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="59">
@@ -7385,10 +7385,10 @@
         <v>120</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="60">
@@ -7599,10 +7599,10 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="62">
@@ -7813,10 +7813,10 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="64">
@@ -7917,10 +7917,10 @@
         <v>120</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="65">
@@ -8131,10 +8131,10 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="67">
@@ -8345,10 +8345,10 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="69">
@@ -8451,10 +8451,10 @@
         <v>120</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="70">
@@ -8665,10 +8665,10 @@
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="72">
@@ -8879,10 +8879,10 @@
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="74">
@@ -8983,10 +8983,10 @@
         <v>120</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="75">
@@ -9197,10 +9197,10 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="77">
@@ -9411,10 +9411,10 @@
         <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="79">
@@ -9517,10 +9517,10 @@
         <v>120</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="80">
@@ -9731,10 +9731,10 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="82">
@@ -9945,10 +9945,10 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="84">
@@ -10049,10 +10049,10 @@
         <v>120</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>235</v>
       </c>
     </row>
     <row r="85">
@@ -10157,10 +10157,10 @@
         <v>76</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="86">
@@ -10263,10 +10263,10 @@
         <v>120</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:25:12+00:00</t>
+    <t>2024-04-02T15:41:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="238">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T15:41:03+00:00</t>
+    <t>2024-04-02T16:06:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>Extension.extension:othersDeliveryIncluded.value[x]</t>
+  </si>
+  <si>
+    <t>ForfaitSocleHebergement.autresPrestationsNonObligatoiresIncluses</t>
   </si>
   <si>
     <t>Extension.extension:residentialType</t>
@@ -5255,7 +5258,7 @@
         <v>120</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>111</v>
@@ -5263,13 +5266,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>76</v>
@@ -5371,7 +5374,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>101</v>
@@ -5477,7 +5480,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>103</v>
@@ -5583,7 +5586,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>105</v>
@@ -5626,7 +5629,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>76</v>
@@ -5691,7 +5694,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>113</v>
@@ -5754,7 +5757,7 @@
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -5787,7 +5790,7 @@
         <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>111</v>
@@ -5795,13 +5798,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>76</v>
@@ -5903,7 +5906,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>101</v>
@@ -6009,7 +6012,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>103</v>
@@ -6115,7 +6118,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>105</v>
@@ -6158,7 +6161,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>76</v>
@@ -6223,7 +6226,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>113</v>
@@ -6286,7 +6289,7 @@
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -6319,7 +6322,7 @@
         <v>120</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>111</v>
@@ -6327,13 +6330,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>76</v>
@@ -6435,7 +6438,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>101</v>
@@ -6541,7 +6544,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>103</v>
@@ -6647,7 +6650,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>105</v>
@@ -6690,7 +6693,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>76</v>
@@ -6755,7 +6758,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>113</v>
@@ -6818,7 +6821,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -6851,7 +6854,7 @@
         <v>120</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>111</v>
@@ -6859,13 +6862,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>76</v>
@@ -6967,7 +6970,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>101</v>
@@ -7073,7 +7076,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>103</v>
@@ -7179,7 +7182,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>105</v>
@@ -7222,7 +7225,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>76</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>113</v>
@@ -7385,7 +7388,7 @@
         <v>120</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>111</v>
@@ -7393,13 +7396,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>76</v>
@@ -7501,7 +7504,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>101</v>
@@ -7607,7 +7610,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>103</v>
@@ -7713,7 +7716,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>105</v>
@@ -7756,7 +7759,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>76</v>
@@ -7821,7 +7824,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>113</v>
@@ -7884,7 +7887,7 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
@@ -7917,7 +7920,7 @@
         <v>120</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>111</v>
@@ -7925,13 +7928,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>76</v>
@@ -8033,7 +8036,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>101</v>
@@ -8139,7 +8142,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>103</v>
@@ -8245,7 +8248,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>105</v>
@@ -8288,7 +8291,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>76</v>
@@ -8353,7 +8356,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>113</v>
@@ -8451,7 +8454,7 @@
         <v>120</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>111</v>
@@ -8459,13 +8462,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>76</v>
@@ -8567,7 +8570,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>101</v>
@@ -8673,7 +8676,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>103</v>
@@ -8779,7 +8782,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>105</v>
@@ -8822,7 +8825,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>76</v>
@@ -8887,7 +8890,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>113</v>
@@ -8950,7 +8953,7 @@
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>76</v>
@@ -8983,7 +8986,7 @@
         <v>120</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>111</v>
@@ -8991,13 +8994,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>76</v>
@@ -9099,7 +9102,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>101</v>
@@ -9205,7 +9208,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>103</v>
@@ -9311,7 +9314,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>105</v>
@@ -9354,7 +9357,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>76</v>
@@ -9419,7 +9422,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>113</v>
@@ -9517,7 +9520,7 @@
         <v>120</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>111</v>
@@ -9525,13 +9528,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>76</v>
@@ -9633,7 +9636,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>101</v>
@@ -9739,7 +9742,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>103</v>
@@ -9845,7 +9848,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>105</v>
@@ -9888,7 +9891,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>76</v>
@@ -9953,7 +9956,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>113</v>
@@ -10049,7 +10052,7 @@
         <v>120</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>111</v>
@@ -10191,7 +10194,7 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>115</v>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T16:06:43+00:00</t>
+    <t>2024-04-10T16:04:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T16:04:08+00:00</t>
+    <t>2024-04-11T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:28:17+00:00</t>
+    <t>2024-04-11T09:33:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:33:38+00:00</t>
+    <t>2024-05-03T15:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T15:00:21+00:00</t>
+    <t>2024-05-13T08:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T08:42:46+00:00</t>
+    <t>2024-05-13T09:06:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T09:06:15+00:00</t>
+    <t>2024-05-15T15:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-ballot-1</t>
+    <t>0.4.0-qa-preview-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T15:09:55+00:00</t>
+    <t>2024-05-16T12:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-qa-preview-1</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T12:22:44+00:00</t>
+    <t>2024-05-16T15:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T15:07:59+00:00</t>
+    <t>2024-05-16T17:06:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T17:06:23+00:00</t>
+    <t>2024-05-17T07:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:43:07+00:00</t>
+    <t>2024-05-17T08:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T08:22:30+00:00</t>
+    <t>2024-05-17T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:21:28+00:00</t>
+    <t>2024-05-17T14:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T14:16:22+00:00</t>
+    <t>2024-05-22T08:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0-snapshot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:14:33+00:00</t>
+    <t>2024-05-23T14:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:06+00:00</t>
+    <t>2024-07-02T15:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T15:46:36+00:00</t>
+    <t>2024-07-09T07:30:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T07:30:06+00:00</t>
+    <t>2024-07-09T09:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:01:38+00:00</t>
+    <t>2024-07-09T09:29:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:29:20+00:00</t>
+    <t>2024-07-09T14:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T14:18:56+00:00</t>
+    <t>2024-09-13T14:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T14:28:16+00:00</t>
+    <t>2024-10-07T14:01:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T14:01:40+00:00</t>
+    <t>2024-10-08T07:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T07:48:52+00:00</t>
+    <t>2024-10-23T09:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T09:49:13+00:00</t>
+    <t>2024-12-02T10:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T10:17:54+00:00</t>
+    <t>2024-12-04T15:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T15:03:14+00:00</t>
+    <t>2024-12-05T09:03:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-2</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T09:03:52+00:00</t>
+    <t>2024-12-09T11:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:05:44+00:00</t>
+    <t>2024-12-09T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:19:41+00:00</t>
+    <t>2024-12-09T12:55:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T12:55:38+00:00</t>
+    <t>2024-12-09T13:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:16:30+00:00</t>
+    <t>2024-12-09T13:44:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:44:46+00:00</t>
+    <t>2024-12-09T13:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:53:32+00:00</t>
+    <t>2024-12-09T14:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:43:44+00:00</t>
+    <t>2024-12-10T08:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:40:22+00:00</t>
+    <t>2024-12-10T08:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:43:17+00:00</t>
+    <t>2024-12-10T08:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:45:21+00:00</t>
+    <t>2024-12-16T09:17:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:17:42+00:00</t>
+    <t>2024-12-16T09:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:21:00+00:00</t>
+    <t>2024-12-16T09:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:28:29+00:00</t>
+    <t>2024-12-16T09:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:31:22+00:00</t>
+    <t>2024-12-16T09:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:34:54+00:00</t>
+    <t>2024-12-16T09:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:49:25+00:00</t>
+    <t>2024-12-16T09:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:53:18+00:00</t>
+    <t>2024-12-16T10:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:03:27+00:00</t>
+    <t>2024-12-16T10:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:04:41+00:00</t>
+    <t>2024-12-16T10:07:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:07:45+00:00</t>
+    <t>2024-12-16T10:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:11:58+00:00</t>
+    <t>2024-12-16T10:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:18:50+00:00</t>
+    <t>2024-12-16T10:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:19:28+00:00</t>
+    <t>2024-12-16T10:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:26:01+00:00</t>
+    <t>2025-01-22T15:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T15:00:55+00:00</t>
+    <t>2025-01-28T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T15:58:19+00:00</t>
+    <t>2025-03-03T10:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:17:50+00:00</t>
+    <t>2025-03-03T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:20:03+00:00</t>
+    <t>2025-03-03T17:10:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T17:10:11+00:00</t>
+    <t>2025-03-07T13:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-07T13:29:09+00:00</t>
+    <t>2025-03-10T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0-snapshot-1</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10T14:14:07+00:00</t>
+    <t>2025-03-13T17:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T17:00:51+00:00</t>
+    <t>2025-03-13T21:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T21:07:49+00:00</t>
+    <t>2025-03-14T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:18:51+00:00</t>
+    <t>2025-03-14T08:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:31:00+00:00</t>
+    <t>2025-03-14T08:36:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:36:00+00:00</t>
+    <t>2025-03-14T08:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:58:55+00:00</t>
+    <t>2025-03-14T09:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T09:23:47+00:00</t>
+    <t>2025-03-17T13:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:12:35+00:00</t>
+    <t>2025-03-18T09:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T09:01:13+00:00</t>
+    <t>2025-03-27T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-27T16:26:35+00:00</t>
+    <t>2025-06-04T09:55:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1059,43 +1059,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.34765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.4453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="121.890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="104.5" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="133.78125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="114.6953125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:55:05+00:00</t>
+    <t>2025-06-10T08:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T08:02:33+00:00</t>
+    <t>2025-07-17T08:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T08:38:04+00:00</t>
+    <t>2025-07-17T09:53:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T09:53:53+00:00</t>
+    <t>2025-07-17T13:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T13:53:21+00:00</t>
+    <t>2025-07-17T14:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:29:52+00:00</t>
+    <t>2025-07-17T15:27:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:27:59+00:00</t>
+    <t>2025-07-17T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:32:30+00:00</t>
+    <t>2025-07-25T09:27:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:27:54+00:00</t>
+    <t>2025-07-28T16:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T16:37:17+00:00</t>
+    <t>2025-07-29T14:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T14:46:28+00:00</t>
+    <t>2025-07-29T15:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T15:03:53+00:00</t>
+    <t>2025-07-30T08:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1059,43 +1059,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.34765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="104.5" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="121.890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="114.6953125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="133.78125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:54:50+00:00</t>
+    <t>2025-07-30T09:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T09:38:37+00:00</t>
+    <t>2025-10-16T15:18:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.7.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T15:18:57+00:00</t>
+    <t>2025-10-17T13:18:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:18:06+00:00</t>
+    <t>2025-10-17T13:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:49:18+00:00</t>
+    <t>2026-01-19T14:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T14:25:36+00:00</t>
+    <t>2026-01-20T13:10:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/main/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T13:10:13+00:00</t>
+    <t>2026-01-21T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
